--- a/PCB/Project Outputs for x-IMU3-SA-GPS/BOM/Bill of Materials-x-IMU3-SA-GPS.xlsx
+++ b/PCB/Project Outputs for x-IMU3-SA-GPS/BOM/Bill of Materials-x-IMU3-SA-GPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Products\x-IMU3\x-IMU3-SA-GPS\PCB\Project Outputs for x-IMU3-SA-GPS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A71DC8-2C08-4382-841E-D027EAB0D1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3AD56F-A537-4717-B1BF-D58084FE1004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29310" yWindow="2610" windowWidth="20850" windowHeight="18990" xr2:uid="{583C0EEF-5D47-43AA-9D39-AAE410496757}"/>
+    <workbookView xWindow="-29930" yWindow="2240" windowWidth="26950" windowHeight="18890" xr2:uid="{BB619E3B-C68E-4A31-BCB6-7BE37F29E643}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-x-IMU3-SA-GPS" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8130B3B5-D3B8-4DAA-AF4F-0E33B8C6FDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C711250-23D9-4285-ACA6-EACAC3D4C868}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
